--- a/mes-modules/produce/src/main/resources/excel/检验记录卡装配.xlsx
+++ b/mes-modules/produce/src/main/resources/excel/检验记录卡装配.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Q\Desktop\mes\质检原型和流程\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Q\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF5C06A-E940-46FA-A8F5-A6E839808056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DC267D-9FC8-400D-812B-04511F0CDB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -354,23 +354,60 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -386,24 +423,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,97 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,796 +739,667 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="42"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="24" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="19"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="24" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="24" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="24" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="18" t="s">
+      <c r="L6" s="7"/>
+      <c r="M6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="35" t="s">
+      <c r="N6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="36"/>
-      <c r="P6" s="20" t="s">
+      <c r="O6" s="13"/>
+      <c r="P6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="11"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="4"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="20"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="4"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="20"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="4"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="20"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="4"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="20"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="4"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="20"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="4"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="20"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="4"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="20"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="4"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="20"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="17"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="17"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="22"/>
       <c r="O16" s="16"/>
-      <c r="P16" s="2"/>
+      <c r="P16" s="18"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="17"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="17"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="22"/>
       <c r="O17" s="16"/>
-      <c r="P17" s="2"/>
+      <c r="P17" s="18"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="17"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="22"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="2"/>
+      <c r="P18" s="18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="17"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="22"/>
       <c r="O19" s="16"/>
-      <c r="P19" s="2"/>
+      <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="17"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="17"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="22"/>
       <c r="O20" s="16"/>
-      <c r="P20" s="2"/>
+      <c r="P20" s="18"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="17"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="17"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="17"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="22"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="2"/>
+      <c r="P21" s="18"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="17"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="17"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="17"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="22"/>
       <c r="O22" s="16"/>
-      <c r="P22" s="2"/>
+      <c r="P22" s="18"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="17"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="17"/>
+      <c r="K23" s="22"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="17"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="22"/>
       <c r="O23" s="16"/>
-      <c r="P23" s="2"/>
+      <c r="P23" s="18"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="17"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="17"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="17"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="22"/>
       <c r="O24" s="16"/>
-      <c r="P24" s="2"/>
+      <c r="P24" s="18"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="17"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="17"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="22"/>
       <c r="O25" s="16"/>
-      <c r="P25" s="2"/>
+      <c r="P25" s="18"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="17"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="17"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="17"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="22"/>
       <c r="O26" s="16"/>
-      <c r="P26" s="2"/>
+      <c r="P26" s="18"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="17"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="17"/>
+      <c r="K27" s="22"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="17"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="22"/>
       <c r="O27" s="16"/>
-      <c r="P27" s="2"/>
+      <c r="P27" s="18"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17" t="s">
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17" t="s">
+      <c r="H28" s="9"/>
+      <c r="I28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="9"/>
+      <c r="K28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="17" t="s">
+      <c r="M28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N28" s="16"/>
-      <c r="O28" s="2" t="s">
+      <c r="N28" s="9"/>
+      <c r="O28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="P28" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
       <c r="M29" s="24"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="31" t="s">
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="A33:P33"/>
     <mergeCell ref="M29:N32"/>
     <mergeCell ref="O29:O32"/>
@@ -1598,6 +1413,135 @@
     <mergeCell ref="I29:J32"/>
     <mergeCell ref="K29:K32"/>
     <mergeCell ref="L29:L32"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
